--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2474610.87521821</v>
+        <v>2436574.259036933</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351843.5915385197</v>
+        <v>193336.0289340985</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481811</v>
+        <v>7956703.636481812</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.293863480540836</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="H2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F2" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="G2" t="n">
-        <v>168.1385771445223</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -709,7 +709,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>145.3493044047353</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
@@ -758,7 +758,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>35.90507490100101</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>33.69989365338485</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>90.07428171382941</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>128.2491389318542</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>7.293863480540836</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="H5" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="G5" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>168.1385771445223</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>21.87738412351144</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>63.74908592061897</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>11.57657371040603</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,64 +1144,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>7.293863480540836</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>205.224307868124</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>13.55696361942517</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="G8" t="n">
+      <c r="W8" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>130.541192806916</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>8.871955572451062</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
@@ -1229,7 +1229,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>86.50354346547167</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>25.15457984420474</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>191.4144326722914</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -1378,19 +1378,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>49.7823671951049</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8560777200009522</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
@@ -1499,7 +1499,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5880156630749</v>
+        <v>11.33166980843018</v>
       </c>
       <c r="T12" t="n">
         <v>195.6974464808964</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>179.7811456891048</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>220.2539629697497</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
@@ -1624,7 +1624,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>148.6837087419612</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>67.21609990296903</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S15" t="n">
-        <v>74.89949988448734</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T15" t="n">
         <v>195.6974464808964</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6133508632724</v>
+        <v>79.35700500862784</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>133.39733990973</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>156.6686349500177</v>
@@ -1788,7 +1788,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>33.74574715012849</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
@@ -1861,7 +1861,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>148.6837087419612</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>65.34002620319505</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>104.0288287853823</v>
@@ -1973,10 +1973,10 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S18" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T18" t="n">
-        <v>195.6974464808964</v>
+        <v>185.7981525315759</v>
       </c>
       <c r="U18" t="n">
         <v>224.6133508632724</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>92.95288539512902</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
-        <v>220.6004399450796</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>214.8104789291116</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>413.6097194764729</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>141.8365435298938</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>54.19080796000306</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -2180,7 +2180,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605712</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T21" t="n">
-        <v>103.7758308662536</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U21" t="n">
         <v>224.6133508632724</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.6686349500177</v>
+        <v>119.8556719835026</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>98.11948219423279</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>62.09331450567402</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>174.6924936692933</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2405,10 +2405,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>10.77708785252926</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>115.1524465449641</v>
       </c>
       <c r="G24" t="n">
         <v>135.3570519053243</v>
@@ -2417,7 +2417,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I24" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>156.5880156630749</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>110.6645749145356</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>110.3801900072069</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
@@ -2566,10 +2566,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>374.9513388182386</v>
+        <v>246.1206982201783</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I27" t="n">
-        <v>53.66853612673688</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>83.51342957218341</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>123.979846382955</v>
       </c>
       <c r="U29" t="n">
-        <v>162.4317205393782</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
@@ -2876,22 +2876,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>144.3623098035503</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>107.003266366739</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S30" t="n">
         <v>156.5880156630749</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.3094207068133</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>188.2409070686243</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>230.9431333090722</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>130.8940766149948</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -3122,13 +3122,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>22.34031300679495</v>
+        <v>94.12953483606209</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>114.6635494125476</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S34" t="n">
         <v>212.6245410698995</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>123.8252395692231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>164.5109343922481</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>148.3969143500971</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.11577975570017</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
@@ -3365,7 +3365,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6133508632724</v>
+        <v>142.924835084685</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>143.4656465272897</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>117.7011067713544</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>276.4097040003367</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>217.4406140145968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S39" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T39" t="n">
         <v>195.6974464808964</v>
@@ -3647,7 +3647,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>59.20528375383371</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>159.2256139076171</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>223.6004551996527</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>62.69168874178151</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>91.39192762822242</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
@@ -3827,7 +3827,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>10.77708785252926</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S42" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T42" t="n">
         <v>195.6974464808964</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>98.28149991177143</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>216.318306103545</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>44.10871926732025</v>
       </c>
       <c r="V44" t="n">
-        <v>180.9848331048299</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -4045,7 +4045,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>25.76923807275637</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -4112,7 +4112,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U45" t="n">
-        <v>79.35700500862784</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>159.2256139076173</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>7.019465481965895</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.8515700725947</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="C2" t="n">
-        <v>953.8515700725947</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="D2" t="n">
-        <v>953.8515700725947</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="E2" t="n">
-        <v>676.7972192224911</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="F2" t="n">
-        <v>399.7428683723875</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="G2" t="n">
-        <v>229.9059217617589</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H2" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
         <v>22.60864108688619</v>
@@ -4357,25 +4357,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U2" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V2" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W2" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X2" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.8515700725947</v>
+        <v>599.0896951955497</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>893.8249258195958</v>
+        <v>650.8395983760572</v>
       </c>
       <c r="C3" t="n">
-        <v>721.0718107414129</v>
+        <v>650.8395983760572</v>
       </c>
       <c r="D3" t="n">
-        <v>573.4835041003568</v>
+        <v>503.251291735001</v>
       </c>
       <c r="E3" t="n">
-        <v>415.8739751032115</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F3" t="n">
-        <v>270.9181851198283</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G3" t="n">
-        <v>133.521003094533</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H3" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
@@ -4421,13 +4421,13 @@
         <v>688.1965482020685</v>
       </c>
       <c r="N3" t="n">
-        <v>688.1965482020685</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O3" t="n">
-        <v>956.0761671793891</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P3" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4436,25 +4436,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>1060.867476941156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>1060.867476941156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>1060.867476941156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V3" t="n">
-        <v>1060.867476941156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W3" t="n">
-        <v>1060.867476941156</v>
+        <v>1063.094932746829</v>
       </c>
       <c r="X3" t="n">
-        <v>1060.867476941156</v>
+        <v>856.5680341524068</v>
       </c>
       <c r="Y3" t="n">
-        <v>1060.867476941156</v>
+        <v>650.8395983760572</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="J4" t="n">
         <v>21.9427045873282</v>
@@ -4515,25 +4515,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>784.014623461966</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="C5" t="n">
-        <v>784.014623461966</v>
+        <v>599.0896951955497</v>
       </c>
       <c r="D5" t="n">
-        <v>784.014623461966</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="E5" t="n">
-        <v>784.014623461966</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="F5" t="n">
-        <v>506.9602726118625</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="G5" t="n">
-        <v>229.9059217617589</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
         <v>22.60864108688619</v>
@@ -4597,22 +4597,22 @@
         <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>953.8515700725947</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U5" t="n">
-        <v>784.014623461966</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V5" t="n">
-        <v>784.014623461966</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="W5" t="n">
-        <v>784.014623461966</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="X5" t="n">
-        <v>784.014623461966</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="Y5" t="n">
-        <v>784.014623461966</v>
+        <v>728.6342799752003</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>538.6072247878885</v>
+        <v>393.6514348045054</v>
       </c>
       <c r="C6" t="n">
-        <v>365.8541097097058</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="D6" t="n">
-        <v>365.8541097097058</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="E6" t="n">
-        <v>365.8541097097058</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="F6" t="n">
         <v>220.8983197263226</v>
@@ -4646,19 +4646,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>161.1846636454791</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L6" t="n">
-        <v>409.2622680873972</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M6" t="n">
-        <v>409.2622680873972</v>
+        <v>545.8456222469285</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5069725377944</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O6" t="n">
         <v>817.386591515115</v>
@@ -4673,25 +4673,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>1001.483734658237</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T6" t="n">
-        <v>1001.483734658237</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U6" t="n">
-        <v>1001.483734658237</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="V6" t="n">
-        <v>767.2324911838377</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="W6" t="n">
-        <v>745.134123382311</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="X6" t="n">
-        <v>538.6072247878885</v>
+        <v>766.4224217024154</v>
       </c>
       <c r="Y6" t="n">
-        <v>538.6072247878885</v>
+        <v>560.6939859260658</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.9695257299568</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4758,19 +4758,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W7" t="n">
-        <v>190.9695257299568</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X7" t="n">
-        <v>190.9695257299568</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.9695257299568</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>576.0514062875353</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="C8" t="n">
-        <v>576.0514062875353</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="D8" t="n">
-        <v>576.0514062875353</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="E8" t="n">
-        <v>576.0514062875353</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="F8" t="n">
-        <v>298.9970554374318</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G8" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H8" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4831,25 +4831,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>1083.441326720526</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>1083.441326720526</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>1083.441326720526</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.13522936641</v>
+        <v>806.3869758704224</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.13522936641</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="X8" t="n">
-        <v>820.0808785163064</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="Y8" t="n">
-        <v>576.0514062875353</v>
+        <v>252.2782741702153</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>669.8223920174504</v>
+        <v>869.6239439441804</v>
       </c>
       <c r="C9" t="n">
-        <v>669.8223920174504</v>
+        <v>696.8708288659975</v>
       </c>
       <c r="D9" t="n">
-        <v>660.8608207321463</v>
+        <v>549.2825222249414</v>
       </c>
       <c r="E9" t="n">
-        <v>503.251291735001</v>
+        <v>391.6729932277962</v>
       </c>
       <c r="F9" t="n">
-        <v>358.2955017516178</v>
+        <v>246.717203244413</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H9" t="n">
         <v>109.3200212191178</v>
@@ -4889,46 +4889,46 @@
         <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>286.1736718527163</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>557.7146411209028</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N9" t="n">
-        <v>829.2556103890893</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O9" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T9" t="n">
-        <v>896.7488334994719</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U9" t="n">
-        <v>669.8223920174504</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V9" t="n">
-        <v>669.8223920174504</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="W9" t="n">
-        <v>669.8223920174504</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="X9" t="n">
-        <v>669.8223920174504</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="Y9" t="n">
-        <v>669.8223920174504</v>
+        <v>1001.483734658237</v>
       </c>
     </row>
     <row r="10">
@@ -4950,13 +4950,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>202.6630345283467</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="G10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>177.254368019049</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
         <v>21.9427045873282</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2485.286380156665</v>
+        <v>1193.018191500087</v>
       </c>
       <c r="C11" t="n">
-        <v>2114.594364319349</v>
+        <v>822.326175662771</v>
       </c>
       <c r="D11" t="n">
-        <v>1754.387563557128</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="E11" t="n">
-        <v>1367.399648652797</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F11" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G11" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H11" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
@@ -5065,28 +5065,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R11" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S11" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T11" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U11" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.571599545659</v>
+        <v>1740.436928543366</v>
       </c>
       <c r="W11" t="n">
-        <v>2485.286380156665</v>
+        <v>1386.36610329028</v>
       </c>
       <c r="X11" t="n">
-        <v>2485.286380156665</v>
+        <v>1386.36610329028</v>
       </c>
       <c r="Y11" t="n">
-        <v>2485.286380156665</v>
+        <v>1386.36610329028</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C12" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D12" t="n">
         <v>659.290600230799</v>
@@ -5120,25 +5120,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J12" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K12" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L12" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M12" t="n">
-        <v>1197.116407734492</v>
+        <v>1166.819924096369</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.393833177324</v>
+        <v>1705.097349539201</v>
       </c>
       <c r="O12" t="n">
-        <v>2160.184497733399</v>
+        <v>2129.888014095276</v>
       </c>
       <c r="P12" t="n">
-        <v>2370.209254145837</v>
+        <v>2454.393431529361</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
@@ -5147,25 +5147,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S12" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T12" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U12" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V12" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W12" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X12" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y12" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="13">
@@ -5220,22 +5220,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q13" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>431.4413288795672</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>431.4413288795672</v>
+        <v>497.9449793014518</v>
       </c>
       <c r="U13" t="n">
-        <v>431.4413288795672</v>
+        <v>497.9449793014518</v>
       </c>
       <c r="V13" t="n">
-        <v>208.9625784050725</v>
+        <v>497.9449793014518</v>
       </c>
       <c r="W13" t="n">
         <v>208.9625784050725</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2147.979266221018</v>
+        <v>1250.598986168647</v>
       </c>
       <c r="C14" t="n">
-        <v>1777.287250383702</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="D14" t="n">
-        <v>1417.080449621481</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="E14" t="n">
-        <v>1030.092534717151</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F14" t="n">
-        <v>618.6845918075132</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G14" t="n">
-        <v>200.8969963767325</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H14" t="n">
         <v>50.71143199091319</v>
@@ -5278,10 +5278,10 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K14" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L14" t="n">
         <v>829.7261648535823</v>
@@ -5290,7 +5290,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N14" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O14" t="n">
         <v>2113.071138623965</v>
@@ -5302,28 +5302,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.571599545659</v>
+        <v>2403.391997152284</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.571599545659</v>
+        <v>2028.784321262214</v>
       </c>
       <c r="Y14" t="n">
-        <v>2535.571599545659</v>
+        <v>1638.191319493289</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.4220925802833</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C15" t="n">
-        <v>742.6689775021005</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D15" t="n">
-        <v>595.0806708610443</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E15" t="n">
-        <v>437.471141863899</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F15" t="n">
-        <v>292.5153518805158</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G15" t="n">
-        <v>155.7910570266529</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H15" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>120.4127199202217</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K15" t="n">
-        <v>366.1489360814929</v>
+        <v>303.8409589986694</v>
       </c>
       <c r="L15" t="n">
-        <v>757.4212114061545</v>
+        <v>695.113234323331</v>
       </c>
       <c r="M15" t="n">
-        <v>1266.817695663801</v>
+        <v>1204.509718580977</v>
       </c>
       <c r="N15" t="n">
         <v>1620.913172155677</v>
@@ -5384,25 +5384,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S15" t="n">
-        <v>2406.042074167387</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T15" t="n">
-        <v>2208.367885802846</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U15" t="n">
-        <v>1981.485713213681</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V15" t="n">
-        <v>1747.234469739282</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W15" t="n">
-        <v>1494.719978072616</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X15" t="n">
-        <v>1288.193079478193</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y15" t="n">
-        <v>1082.464643701844</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591335</v>
+        <v>645.4554828761754</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591335</v>
+        <v>645.4554828761754</v>
       </c>
       <c r="D16" t="n">
-        <v>679.5420961591335</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="E16" t="n">
-        <v>679.5420961591335</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="F16" t="n">
-        <v>531.9067209977148</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="G16" t="n">
-        <v>397.1619332101088</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9107867959494</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J16" t="n">
         <v>50.71143199091319</v>
@@ -5466,22 +5466,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T16" t="n">
-        <v>679.5420961591335</v>
+        <v>645.4554828761754</v>
       </c>
       <c r="U16" t="n">
-        <v>679.5420961591335</v>
+        <v>645.4554828761754</v>
       </c>
       <c r="V16" t="n">
-        <v>679.5420961591335</v>
+        <v>645.4554828761754</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5420961591335</v>
+        <v>645.4554828761754</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591335</v>
+        <v>645.4554828761754</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591335</v>
+        <v>645.4554828761754</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2147.979266221018</v>
+        <v>1627.101685997883</v>
       </c>
       <c r="C17" t="n">
-        <v>1777.287250383702</v>
+        <v>1627.101685997883</v>
       </c>
       <c r="D17" t="n">
-        <v>1417.080449621481</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E17" t="n">
-        <v>1030.092534717151</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F17" t="n">
-        <v>618.6845918075132</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G17" t="n">
-        <v>200.8969963767325</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H17" t="n">
         <v>50.71143199091319</v>
@@ -5521,13 +5521,13 @@
         <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5539,28 +5539,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W17" t="n">
-        <v>2535.571599545659</v>
+        <v>2405.287021091449</v>
       </c>
       <c r="X17" t="n">
-        <v>2535.571599545659</v>
+        <v>2405.287021091449</v>
       </c>
       <c r="Y17" t="n">
-        <v>2535.571599545659</v>
+        <v>2014.694019322524</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.6320219500381</v>
+        <v>842.907727096175</v>
       </c>
       <c r="C18" t="n">
-        <v>806.8789068718552</v>
+        <v>670.1546120179921</v>
       </c>
       <c r="D18" t="n">
-        <v>659.290600230799</v>
+        <v>522.566305376936</v>
       </c>
       <c r="E18" t="n">
-        <v>501.6810712336537</v>
+        <v>364.9567763797908</v>
       </c>
       <c r="F18" t="n">
-        <v>356.7252812502705</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="G18" t="n">
         <v>220.0009863964076</v>
@@ -5594,16 +5594,16 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J18" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9669871305373</v>
+        <v>189.9533910490641</v>
       </c>
       <c r="L18" t="n">
-        <v>573.239262455199</v>
+        <v>581.2256663737257</v>
       </c>
       <c r="M18" t="n">
-        <v>1082.635746712845</v>
+        <v>1090.622150631372</v>
       </c>
       <c r="N18" t="n">
         <v>1620.913172155677</v>
@@ -5621,25 +5621,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S18" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T18" t="n">
-        <v>2272.5778151726</v>
+        <v>2135.853520318738</v>
       </c>
       <c r="U18" t="n">
-        <v>2045.695642583436</v>
+        <v>1908.971347729573</v>
       </c>
       <c r="V18" t="n">
-        <v>1811.444399109037</v>
+        <v>1674.720104255174</v>
       </c>
       <c r="W18" t="n">
-        <v>1558.92990744237</v>
+        <v>1422.205612588507</v>
       </c>
       <c r="X18" t="n">
-        <v>1352.403008847948</v>
+        <v>1215.678713994085</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.674573071598</v>
+        <v>1009.950278217735</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>201.2221052379024</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="C19" t="n">
-        <v>201.2221052379024</v>
+        <v>357.4217947416373</v>
       </c>
       <c r="D19" t="n">
-        <v>50.71143199091319</v>
+        <v>357.4217947416373</v>
       </c>
       <c r="E19" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="F19" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G19" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H19" t="n">
         <v>50.71143199091319</v>
@@ -5703,22 +5703,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T19" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U19" t="n">
-        <v>456.7133689418814</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V19" t="n">
-        <v>201.2221052379024</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W19" t="n">
-        <v>201.2221052379024</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="X19" t="n">
-        <v>201.2221052379024</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.2221052379024</v>
+        <v>451.3135981710606</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1056.171325005587</v>
+        <v>1627.101685997883</v>
       </c>
       <c r="C20" t="n">
-        <v>685.4793091682712</v>
+        <v>1627.101685997883</v>
       </c>
       <c r="D20" t="n">
-        <v>468.4990274216939</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E20" t="n">
-        <v>468.4990274216939</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F20" t="n">
         <v>468.4990274216939</v>
@@ -5758,13 +5758,13 @@
         <v>432.762901072481</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535818</v>
       </c>
       <c r="M20" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N20" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O20" t="n">
         <v>2113.071138623965</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T20" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U20" t="n">
-        <v>1818.371334220299</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V20" t="n">
-        <v>1818.371334220299</v>
+        <v>2392.302363656878</v>
       </c>
       <c r="W20" t="n">
-        <v>1818.371334220299</v>
+        <v>2392.302363656878</v>
       </c>
       <c r="X20" t="n">
-        <v>1443.763658330229</v>
+        <v>2017.694687766808</v>
       </c>
       <c r="Y20" t="n">
-        <v>1443.763658330229</v>
+        <v>1627.101685997883</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C21" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D21" t="n">
         <v>659.290600230799</v>
@@ -5825,7 +5825,7 @@
         <v>220.0009863964076</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9213613606679</v>
+        <v>114.9213613606678</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
@@ -5834,10 +5834,10 @@
         <v>50.71143199091319</v>
       </c>
       <c r="K21" t="n">
-        <v>181.9669871305373</v>
+        <v>189.9533910490641</v>
       </c>
       <c r="L21" t="n">
-        <v>573.239262455199</v>
+        <v>573.2392624551985</v>
       </c>
       <c r="M21" t="n">
         <v>1082.635746712845</v>
@@ -5846,7 +5846,7 @@
         <v>1620.913172155677</v>
       </c>
       <c r="O21" t="n">
-        <v>2045.703836711752</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P21" t="n">
         <v>2370.209254145837</v>
@@ -5861,22 +5861,22 @@
         <v>2377.401886754675</v>
       </c>
       <c r="T21" t="n">
-        <v>2272.5778151726</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U21" t="n">
-        <v>2045.695642583436</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V21" t="n">
-        <v>1811.444399109037</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W21" t="n">
-        <v>1558.92990744237</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X21" t="n">
-        <v>1352.403008847948</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.4732516520618</v>
+        <v>458.5838397270444</v>
       </c>
       <c r="C22" t="n">
-        <v>359.4732516520618</v>
+        <v>458.5838397270444</v>
       </c>
       <c r="D22" t="n">
-        <v>208.9625784050725</v>
+        <v>458.5838397270444</v>
       </c>
       <c r="E22" t="n">
-        <v>208.9625784050725</v>
+        <v>310.1246233904795</v>
       </c>
       <c r="F22" t="n">
-        <v>208.9625784050725</v>
+        <v>310.1246233904795</v>
       </c>
       <c r="G22" t="n">
-        <v>208.9625784050725</v>
+        <v>310.1246233904795</v>
       </c>
       <c r="H22" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I22" t="n">
         <v>50.71143199091319</v>
@@ -5919,7 +5919,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M22" t="n">
-        <v>355.9743406206215</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N22" t="n">
         <v>494.2381528619504</v>
@@ -5952,10 +5952,10 @@
         <v>679.5420961591335</v>
       </c>
       <c r="X22" t="n">
-        <v>580.4315080841509</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y22" t="n">
-        <v>359.4732516520618</v>
+        <v>458.5838397270444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="C23" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="D23" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="E23" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F23" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G23" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H23" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K23" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O23" t="n">
         <v>2113.071138623965</v>
@@ -6019,22 +6019,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T23" t="n">
-        <v>2072.288667455001</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="U23" t="n">
-        <v>1818.371334220299</v>
+        <v>2038.083383361117</v>
       </c>
       <c r="V23" t="n">
-        <v>1486.519595308663</v>
+        <v>1975.362863658416</v>
       </c>
       <c r="W23" t="n">
-        <v>1132.448770055577</v>
+        <v>1621.292038405331</v>
       </c>
       <c r="X23" t="n">
-        <v>955.9917057431599</v>
+        <v>1246.684362515261</v>
       </c>
       <c r="Y23" t="n">
-        <v>955.9917057431599</v>
+        <v>856.0913607463353</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>832.9084402786798</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C24" t="n">
-        <v>660.1553252004969</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D24" t="n">
-        <v>512.5670185594408</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E24" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F24" t="n">
-        <v>356.7252812502705</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G24" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I24" t="n">
         <v>50.71143199091319</v>
@@ -6086,34 +6086,34 @@
         <v>2167.577808579883</v>
       </c>
       <c r="P24" t="n">
-        <v>2492.083226013969</v>
+        <v>2454.393431529361</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S24" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T24" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U24" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V24" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W24" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X24" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y24" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.4938308944845</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C25" t="n">
-        <v>162.4938308944845</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D25" t="n">
-        <v>162.4938308944845</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E25" t="n">
         <v>50.71143199091319</v>
@@ -6168,31 +6168,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q25" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R25" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S25" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T25" t="n">
-        <v>417.9850945984634</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U25" t="n">
-        <v>417.9850945984634</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V25" t="n">
-        <v>162.4938308944845</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="W25" t="n">
-        <v>162.4938308944845</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="X25" t="n">
-        <v>162.4938308944845</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y25" t="n">
-        <v>162.4938308944845</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1547.336889573809</v>
+        <v>1464.300508967213</v>
       </c>
       <c r="C26" t="n">
-        <v>1176.644873736494</v>
+        <v>1464.300508967213</v>
       </c>
       <c r="D26" t="n">
-        <v>816.4380729742729</v>
+        <v>1104.093708204993</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4501580699421</v>
+        <v>717.1057933006618</v>
       </c>
       <c r="F26" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G26" t="n">
         <v>50.71143199091319</v>
@@ -6256,22 +6256,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T26" t="n">
-        <v>2292.00071659582</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U26" t="n">
-        <v>2292.00071659582</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V26" t="n">
-        <v>2292.00071659582</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="W26" t="n">
-        <v>1937.929891342735</v>
+        <v>1464.300508967213</v>
       </c>
       <c r="X26" t="n">
-        <v>1937.929891342735</v>
+        <v>1464.300508967213</v>
       </c>
       <c r="Y26" t="n">
-        <v>1547.336889573809</v>
+        <v>1464.300508967213</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>210.0016995789124</v>
       </c>
       <c r="G27" t="n">
-        <v>210.0016995789124</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H27" t="n">
-        <v>104.9220745431727</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>120.4127199202217</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K27" t="n">
-        <v>366.1489360814929</v>
+        <v>303.8409589986694</v>
       </c>
       <c r="L27" t="n">
-        <v>757.4212114061545</v>
+        <v>695.113234323331</v>
       </c>
       <c r="M27" t="n">
-        <v>1099.716268799926</v>
+        <v>1204.509718580977</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.993694242758</v>
+        <v>1742.787144023809</v>
       </c>
       <c r="O27" t="n">
-        <v>2062.784358798833</v>
+        <v>2167.577808579883</v>
       </c>
       <c r="P27" t="n">
-        <v>2387.289776232918</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="C28" t="n">
         <v>50.71143199091319</v>
@@ -6417,19 +6417,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U28" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V28" t="n">
-        <v>424.0508324551545</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W28" t="n">
-        <v>135.0684315587752</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>468.4990274216939</v>
+        <v>839.1910432590097</v>
       </c>
       <c r="C29" t="n">
         <v>468.4990274216939</v>
@@ -6463,13 +6463,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J29" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K29" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M29" t="n">
         <v>1286.636576300462</v>
@@ -6493,22 +6493,22 @@
         <v>2471.287047559323</v>
       </c>
       <c r="T29" t="n">
-        <v>2471.287047559323</v>
+        <v>2346.054879495732</v>
       </c>
       <c r="U29" t="n">
-        <v>2307.214602570052</v>
+        <v>2346.054879495732</v>
       </c>
       <c r="V29" t="n">
-        <v>1975.362863658416</v>
+        <v>2346.054879495732</v>
       </c>
       <c r="W29" t="n">
-        <v>1621.292038405331</v>
+        <v>1991.984054242647</v>
       </c>
       <c r="X29" t="n">
-        <v>1246.684362515261</v>
+        <v>1617.376378352576</v>
       </c>
       <c r="Y29" t="n">
-        <v>856.0913607463353</v>
+        <v>1226.783376583651</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>886.7819051675707</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C30" t="n">
-        <v>714.0287900893879</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D30" t="n">
-        <v>566.4404834483319</v>
+        <v>514.3348102474158</v>
       </c>
       <c r="E30" t="n">
-        <v>408.8309544511866</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="F30" t="n">
-        <v>263.8751644678034</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G30" t="n">
-        <v>155.7910570266529</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H30" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I30" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>120.4127199202217</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K30" t="n">
-        <v>259.6546789783726</v>
+        <v>303.8409589986694</v>
       </c>
       <c r="L30" t="n">
-        <v>650.9269543030342</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M30" t="n">
-        <v>1160.32343856068</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N30" t="n">
-        <v>1698.600864003512</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.391528559587</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P30" t="n">
-        <v>2447.896945993672</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q30" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R30" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S30" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T30" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U30" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V30" t="n">
-        <v>1718.59428232657</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W30" t="n">
-        <v>1466.079790659903</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X30" t="n">
-        <v>1259.552892065481</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y30" t="n">
-        <v>1053.824456289131</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>162.1350892705226</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C31" t="n">
-        <v>162.1350892705226</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D31" t="n">
-        <v>162.1350892705226</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E31" t="n">
-        <v>162.1350892705226</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F31" t="n">
-        <v>162.1350892705226</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G31" t="n">
-        <v>162.1350892705226</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H31" t="n">
-        <v>162.1350892705226</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I31" t="n">
         <v>50.71143199091319</v>
@@ -6645,28 +6645,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R31" t="n">
-        <v>679.5420961591335</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S31" t="n">
-        <v>679.5420961591335</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="T31" t="n">
-        <v>679.5420961591335</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="U31" t="n">
-        <v>679.5420961591335</v>
+        <v>240.853762363261</v>
       </c>
       <c r="V31" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="W31" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X31" t="n">
-        <v>162.1350892705226</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.1350892705226</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1219.799305642197</v>
+        <v>1473.389663324938</v>
       </c>
       <c r="C32" t="n">
-        <v>849.1072898048812</v>
+        <v>1473.389663324938</v>
       </c>
       <c r="D32" t="n">
-        <v>849.1072898048812</v>
+        <v>1113.182862562717</v>
       </c>
       <c r="E32" t="n">
-        <v>462.1193749005504</v>
+        <v>1113.182862562717</v>
       </c>
       <c r="F32" t="n">
-        <v>50.71143199091319</v>
+        <v>701.7749196530799</v>
       </c>
       <c r="G32" t="n">
-        <v>50.71143199091319</v>
+        <v>283.9873242222992</v>
       </c>
       <c r="H32" t="n">
         <v>50.71143199091319</v>
@@ -6700,13 +6700,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K32" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M32" t="n">
         <v>1286.636576300462</v>
@@ -6730,22 +6730,22 @@
         <v>2471.287047559323</v>
       </c>
       <c r="T32" t="n">
-        <v>2471.287047559323</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U32" t="n">
-        <v>2471.287047559323</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="V32" t="n">
-        <v>2339.070808554278</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="W32" t="n">
-        <v>1984.999983301192</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="X32" t="n">
-        <v>1610.392307411122</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="Y32" t="n">
-        <v>1219.799305642197</v>
+        <v>1860.981996649579</v>
       </c>
     </row>
     <row r="33">
@@ -6770,10 +6770,10 @@
         <v>210.0016995789124</v>
       </c>
       <c r="G33" t="n">
-        <v>73.27740472504951</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="H33" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I33" t="n">
         <v>50.71143199091319</v>
@@ -6782,10 +6782,10 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K33" t="n">
-        <v>181.9669871305373</v>
+        <v>349.0684139944117</v>
       </c>
       <c r="L33" t="n">
-        <v>573.239262455199</v>
+        <v>740.3406893190734</v>
       </c>
       <c r="M33" t="n">
         <v>1082.635746712845</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="C34" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="D34" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="E34" t="n">
-        <v>50.71143199091319</v>
+        <v>166.5331990742946</v>
       </c>
       <c r="F34" t="n">
         <v>50.71143199091319</v>
@@ -6882,28 +6882,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R34" t="n">
-        <v>679.5420961591335</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S34" t="n">
-        <v>464.7698324521643</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="T34" t="n">
-        <v>464.7698324521643</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="U34" t="n">
-        <v>339.6938328872925</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="V34" t="n">
-        <v>339.6938328872925</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="W34" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="X34" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.71143199091319</v>
+        <v>314.9924154108594</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1318.494036575687</v>
+        <v>1462.056702056297</v>
       </c>
       <c r="C35" t="n">
-        <v>947.8020207383707</v>
+        <v>1091.364686218981</v>
       </c>
       <c r="D35" t="n">
-        <v>587.5952199761501</v>
+        <v>925.1920252167099</v>
       </c>
       <c r="E35" t="n">
-        <v>200.6073050718193</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="F35" t="n">
-        <v>200.6073050718193</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="G35" t="n">
-        <v>200.6073050718193</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H35" t="n">
-        <v>200.6073050718193</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
@@ -6943,7 +6943,7 @@
         <v>432.762901072481</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
@@ -6961,28 +6961,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S35" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T35" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U35" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V35" t="n">
-        <v>2471.287047559323</v>
+        <v>2203.719860634023</v>
       </c>
       <c r="W35" t="n">
-        <v>2471.287047559323</v>
+        <v>1849.649035380938</v>
       </c>
       <c r="X35" t="n">
-        <v>2096.679371669253</v>
+        <v>1849.649035380938</v>
       </c>
       <c r="Y35" t="n">
-        <v>1706.086369900328</v>
+        <v>1849.649035380938</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.6320219500381</v>
+        <v>915.4220925802833</v>
       </c>
       <c r="C36" t="n">
-        <v>806.8789068718552</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D36" t="n">
-        <v>659.290600230799</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E36" t="n">
-        <v>501.6810712336537</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F36" t="n">
-        <v>356.7252812502705</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G36" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I36" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>50.71143199091319</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K36" t="n">
-        <v>296.4476481521845</v>
+        <v>303.8409589986694</v>
       </c>
       <c r="L36" t="n">
-        <v>687.7199234768461</v>
+        <v>695.113234323331</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.116407734492</v>
+        <v>1204.509718580977</v>
       </c>
       <c r="N36" t="n">
-        <v>1620.913172155677</v>
+        <v>1742.787144023809</v>
       </c>
       <c r="O36" t="n">
-        <v>2045.703836711752</v>
+        <v>2167.577808579883</v>
       </c>
       <c r="P36" t="n">
-        <v>2370.209254145837</v>
+        <v>2454.393431529361</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.571599545659</v>
@@ -7049,19 +7049,19 @@
         <v>2125.854233501242</v>
       </c>
       <c r="U36" t="n">
-        <v>1898.972060912078</v>
+        <v>1981.485713213681</v>
       </c>
       <c r="V36" t="n">
-        <v>1664.720817437679</v>
+        <v>1747.234469739282</v>
       </c>
       <c r="W36" t="n">
-        <v>1412.206325771012</v>
+        <v>1494.719978072616</v>
       </c>
       <c r="X36" t="n">
-        <v>1205.67942717659</v>
+        <v>1288.193079478193</v>
       </c>
       <c r="Y36" t="n">
-        <v>999.9509914002402</v>
+        <v>1082.464643701844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.71143199091319</v>
+        <v>195.6262264629229</v>
       </c>
       <c r="C37" t="n">
-        <v>50.71143199091319</v>
+        <v>195.6262264629229</v>
       </c>
       <c r="D37" t="n">
-        <v>50.71143199091319</v>
+        <v>195.6262264629229</v>
       </c>
       <c r="E37" t="n">
-        <v>50.71143199091319</v>
+        <v>195.6262264629229</v>
       </c>
       <c r="F37" t="n">
-        <v>50.71143199091319</v>
+        <v>195.6262264629229</v>
       </c>
       <c r="G37" t="n">
         <v>50.71143199091319</v>
@@ -7128,19 +7128,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U37" t="n">
-        <v>560.6520893193816</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V37" t="n">
-        <v>560.6520893193816</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="W37" t="n">
-        <v>271.6696884230023</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="X37" t="n">
-        <v>271.6696884230023</v>
+        <v>195.6262264629229</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.71143199091319</v>
+        <v>195.6262264629229</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>538.2041103123792</v>
+        <v>1250.598986168647</v>
       </c>
       <c r="C38" t="n">
-        <v>538.2041103123792</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="D38" t="n">
-        <v>538.2041103123792</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="E38" t="n">
-        <v>538.2041103123792</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F38" t="n">
-        <v>538.2041103123792</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G38" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H38" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
@@ -7177,10 +7177,10 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K38" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535825</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
@@ -7204,22 +7204,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T38" t="n">
-        <v>2072.288667455001</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="U38" t="n">
-        <v>1818.371334220299</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.519595308663</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="W38" t="n">
-        <v>1132.448770055577</v>
+        <v>2012.798995383359</v>
       </c>
       <c r="X38" t="n">
-        <v>757.8410941655072</v>
+        <v>1638.191319493289</v>
       </c>
       <c r="Y38" t="n">
-        <v>538.2041103123792</v>
+        <v>1638.191319493289</v>
       </c>
     </row>
     <row r="39">
@@ -7253,10 +7253,10 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>50.71143199091319</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K39" t="n">
-        <v>181.9669871305373</v>
+        <v>303.8409589986694</v>
       </c>
       <c r="L39" t="n">
         <v>573.239262455199</v>
@@ -7280,19 +7280,19 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S39" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T39" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U39" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X39" t="n">
         <v>1352.403008847948</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2374.737646103622</v>
+        <v>238.9107867959494</v>
       </c>
       <c r="C40" t="n">
-        <v>2205.710824960993</v>
+        <v>238.9107867959494</v>
       </c>
       <c r="D40" t="n">
-        <v>2055.200151714004</v>
+        <v>238.9107867959494</v>
       </c>
       <c r="E40" t="n">
-        <v>1906.740935377439</v>
+        <v>238.9107867959494</v>
       </c>
       <c r="F40" t="n">
-        <v>1906.740935377439</v>
+        <v>238.9107867959494</v>
       </c>
       <c r="G40" t="n">
-        <v>1906.740935377439</v>
+        <v>238.9107867959494</v>
       </c>
       <c r="H40" t="n">
-        <v>1906.740935377439</v>
+        <v>238.9107867959494</v>
       </c>
       <c r="I40" t="n">
-        <v>1906.740935377439</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="J40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K40" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L40" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M40" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N40" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O40" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S40" t="n">
-        <v>2535.571599545659</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="T40" t="n">
-        <v>2535.571599545659</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="U40" t="n">
-        <v>2535.571599545659</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="V40" t="n">
-        <v>2535.571599545659</v>
+        <v>238.9107867959494</v>
       </c>
       <c r="W40" t="n">
-        <v>2535.571599545659</v>
+        <v>238.9107867959494</v>
       </c>
       <c r="X40" t="n">
-        <v>2535.571599545659</v>
+        <v>238.9107867959494</v>
       </c>
       <c r="Y40" t="n">
-        <v>2535.571599545659</v>
+        <v>238.9107867959494</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>855.4869423260247</v>
+        <v>1226.178958163341</v>
       </c>
       <c r="C41" t="n">
         <v>855.4869423260247</v>
@@ -7414,16 +7414,16 @@
         <v>154.6737472370293</v>
       </c>
       <c r="K41" t="n">
-        <v>432.7629010724809</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L41" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7438,25 +7438,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S41" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T41" t="n">
-        <v>2228.675778472808</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U41" t="n">
-        <v>1974.758445238106</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V41" t="n">
-        <v>1974.758445238106</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W41" t="n">
-        <v>1620.68761998502</v>
+        <v>2378.971969146977</v>
       </c>
       <c r="X41" t="n">
-        <v>1246.07994409495</v>
+        <v>2004.364293256907</v>
       </c>
       <c r="Y41" t="n">
-        <v>855.4869423260247</v>
+        <v>1613.771291487982</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C42" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D42" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E42" t="n">
         <v>501.6810712336537</v>
@@ -7490,19 +7490,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>50.71143199091319</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K42" t="n">
-        <v>296.4476481521845</v>
+        <v>197.346701895549</v>
       </c>
       <c r="L42" t="n">
-        <v>687.7199234768461</v>
+        <v>588.6189772202106</v>
       </c>
       <c r="M42" t="n">
-        <v>1197.116407734492</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N42" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O42" t="n">
         <v>2045.703836711752</v>
@@ -7514,28 +7514,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R42" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S42" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T42" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V42" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W42" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X42" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C43" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D43" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E43" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F43" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G43" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H43" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I43" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J43" t="n">
         <v>50.71143199091319</v>
@@ -7590,31 +7590,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>397.1619332101088</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>397.1619332101088</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U43" t="n">
-        <v>397.1619332101088</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V43" t="n">
-        <v>397.1619332101088</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W43" t="n">
-        <v>397.1619332101088</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X43" t="n">
-        <v>397.1619332101088</v>
+        <v>451.1174901669019</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.1619332101088</v>
+        <v>232.6141506683716</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>781.6102485904496</v>
+        <v>967.2041655140279</v>
       </c>
       <c r="C44" t="n">
-        <v>410.9182327531338</v>
+        <v>596.5121496767121</v>
       </c>
       <c r="D44" t="n">
-        <v>50.71143199091319</v>
+        <v>596.5121496767121</v>
       </c>
       <c r="E44" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="F44" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="G44" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H44" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I44" t="n">
         <v>50.71143199091319</v>
@@ -7675,25 +7675,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S44" t="n">
-        <v>2471.287047559323</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T44" t="n">
-        <v>2471.287047559323</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U44" t="n">
-        <v>2471.287047559323</v>
+        <v>2027.734405568819</v>
       </c>
       <c r="V44" t="n">
-        <v>2288.474084827172</v>
+        <v>1695.882666657184</v>
       </c>
       <c r="W44" t="n">
-        <v>1934.403259574086</v>
+        <v>1341.811841404098</v>
       </c>
       <c r="X44" t="n">
-        <v>1559.795583684016</v>
+        <v>967.2041655140279</v>
       </c>
       <c r="Y44" t="n">
-        <v>1169.202581915091</v>
+        <v>967.2041655140279</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
         <v>806.8789068718552</v>
@@ -7727,19 +7727,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J45" t="n">
-        <v>50.71143199091319</v>
+        <v>58.10474283739809</v>
       </c>
       <c r="K45" t="n">
-        <v>296.4476481521845</v>
+        <v>303.8409589986694</v>
       </c>
       <c r="L45" t="n">
-        <v>687.7199234768461</v>
+        <v>695.113234323331</v>
       </c>
       <c r="M45" t="n">
-        <v>1197.116407734492</v>
+        <v>1204.509718580977</v>
       </c>
       <c r="N45" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O45" t="n">
         <v>2045.703836711752</v>
@@ -7760,19 +7760,19 @@
         <v>2125.854233501242</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>276.681121049586</v>
+        <v>518.7081427170958</v>
       </c>
       <c r="C46" t="n">
-        <v>107.6542999069573</v>
+        <v>349.6813215744672</v>
       </c>
       <c r="D46" t="n">
-        <v>107.6542999069573</v>
+        <v>199.170648327478</v>
       </c>
       <c r="E46" t="n">
-        <v>107.6542999069573</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F46" t="n">
-        <v>107.6542999069573</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G46" t="n">
-        <v>107.6542999069573</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H46" t="n">
-        <v>107.6542999069573</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I46" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J46" t="n">
         <v>50.71143199091319</v>
@@ -7851,7 +7851,7 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Y46" t="n">
-        <v>458.5838397270444</v>
+        <v>679.5420961591335</v>
       </c>
     </row>
   </sheetData>
@@ -8069,16 +8069,16 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>195.818756393795</v>
       </c>
       <c r="P3" t="n">
-        <v>273.1089484279829</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8294,22 +8294,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>409.7241198125511</v>
       </c>
       <c r="N6" t="n">
-        <v>269.7194869079138</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
         <v>331.2012793855346</v>
@@ -8537,22 +8537,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>253.8740529730059</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>402.3419766228525</v>
+        <v>258.5531625267515</v>
       </c>
       <c r="O9" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8786,7 +8786,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>215.5642480505376</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
         <v>218.4803792452831</v>
@@ -9017,7 +9017,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>312.4736966395628</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9242,10 +9242,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K18" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9479,10 +9479,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>60.72933541128936</v>
+        <v>60.72933541128934</v>
       </c>
       <c r="K21" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.37535715626086</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>201.2273266320696</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10430,7 +10430,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10676,7 +10676,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>382.8790379822985</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10901,10 +10901,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789566</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11390,7 +11390,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
-        <v>293.9797807128016</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
         <v>331.2012793855346</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>192.3019773191036</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>300.7477498054497</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9462130081922</v>
+        <v>46.16506731908731</v>
       </c>
       <c r="U13" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>32.68238809718943</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>176.7093680426367</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
         <v>157.2246747536534</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>177.493467653868</v>
@@ -23557,13 +23557,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>283.3140170975855</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>81.68851577858754</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.9746241731992</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>33.93376427960209</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9462130081922</v>
+        <v>192.2004658580637</v>
       </c>
       <c r="U16" t="n">
         <v>286.0218075870219</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>176.7093680426367</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
         <v>157.2246747536534</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>177.493467653868</v>
@@ -23794,13 +23794,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>285.1900907973595</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>9.899293949320537</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>74.38366753607332</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>146.1590214098045</v>
@@ -23907,7 +23907,7 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H19" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>136.9633875020681</v>
@@ -23943,13 +23943,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>65.42136764194234</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>141.7942538254868</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>186.6966779926256</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>91.92161561464249</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>91.92161561464286</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>146.1590214098045</v>
@@ -24144,13 +24144,13 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>36.81296296651513</v>
       </c>
       <c r="I22" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>49.35397375491781</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.99521853687121</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R22" t="n">
         <v>148.2796428708918</v>
@@ -24192,7 +24192,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0208777380765</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>266.4399070168453</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>196.1691054618761</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24293,10 +24293,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>28.35378553858524</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>36.31004925866361</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R25" t="n">
         <v>148.2796428708918</v>
@@ -24417,19 +24417,19 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>142.5561610597322</v>
       </c>
       <c r="W25" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24445,7 +24445,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>32.3425246623022</v>
+        <v>161.1731652603626</v>
       </c>
       <c r="G26" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>325.3930767845979</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24511,7 +24511,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I27" t="n">
-        <v>9.899293949320239</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>116.9085798791017</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
@@ -24657,16 +24657,16 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>142.6269303601258</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
@@ -24733,13 +24733,13 @@
         <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>93.53508226645552</v>
       </c>
       <c r="U29" t="n">
-        <v>88.94643936297757</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.750113771095272</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>28.35378553858531</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I31" t="n">
-        <v>26.65396679525475</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J31" t="n">
         <v>49.35397375491781</v>
@@ -24885,7 +24885,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R31" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.6245410698995</v>
@@ -24894,16 +24894,16 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>64.69544399831486</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>325.3930767845979</v>
+        <v>94.44994347552574</v>
       </c>
       <c r="I32" t="n">
         <v>157.2246747536534</v>
@@ -24970,19 +24970,19 @@
         <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>197.6391449075245</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>81.6885157785874</v>
+        <v>9.899293949320253</v>
       </c>
       <c r="I33" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>31.49547199725693</v>
       </c>
       <c r="G34" t="n">
         <v>167.3311041893321</v>
@@ -25122,7 +25122,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R34" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
-        <v>162.1965680177988</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>192.0937983623503</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.827760403556312</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S35" t="n">
         <v>177.493467653868</v>
@@ -25213,16 +25213,16 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3311041893321</v>
+        <v>23.86545766204242</v>
       </c>
       <c r="H37" t="n">
         <v>156.6686349500177</v>
@@ -25368,19 +25368,19 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>168.3207008156675</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
@@ -25402,16 +25402,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>74.12041300021792</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>169.246457736639</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.85807758306674</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
@@ -25569,10 +25569,10 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I40" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S40" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.9462130081922</v>
@@ -25608,7 +25608,7 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>29.33589586728641</v>
       </c>
       <c r="W40" t="n">
         <v>286.0925768874155</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>154.823239907629</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>259.1381893723321</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -25803,13 +25803,13 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S43" t="n">
-        <v>114.343041158128</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
         <v>225.9462130081922</v>
@@ -25851,10 +25851,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>2.430367764223206</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
@@ -25885,7 +25885,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3781599023558</v>
+        <v>207.2694406350355</v>
       </c>
       <c r="V44" t="n">
-        <v>147.5483884176895</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>20.85807758306652</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -26043,10 +26043,10 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I46" t="n">
-        <v>129.9439220201021</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>548695.9540655426</v>
+        <v>548695.9540655427</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>548695.9540655426</v>
+        <v>548695.9540655427</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>610439.5564612028</v>
+        <v>610439.5564612023</v>
       </c>
       <c r="C2" t="n">
-        <v>610439.5564612022</v>
+        <v>610439.5564612023</v>
       </c>
       <c r="D2" t="n">
-        <v>610439.5564612022</v>
+        <v>610439.5564612023</v>
       </c>
       <c r="E2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.9655491573</v>
       </c>
       <c r="F2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.9655491573</v>
       </c>
       <c r="G2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.965549157</v>
       </c>
       <c r="H2" t="n">
-        <v>411521.9655491573</v>
+        <v>411521.9655491571</v>
       </c>
       <c r="I2" t="n">
         <v>411521.9655491572</v>
       </c>
       <c r="J2" t="n">
-        <v>411521.9655491573</v>
+        <v>411521.9655491572</v>
       </c>
       <c r="K2" t="n">
         <v>411521.9655491571</v>
       </c>
       <c r="L2" t="n">
+        <v>411521.9655491569</v>
+      </c>
+      <c r="M2" t="n">
         <v>411521.9655491571</v>
       </c>
-      <c r="M2" t="n">
-        <v>411521.9655491574</v>
-      </c>
       <c r="N2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.9655491571</v>
       </c>
       <c r="O2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.965549157</v>
       </c>
       <c r="P2" t="n">
-        <v>411521.9655491573</v>
+        <v>411521.9655491571</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853741</v>
+        <v>89616.02429853742</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>267076.118899204</v>
       </c>
       <c r="E4" t="n">
+        <v>482.189206638964</v>
+      </c>
+      <c r="F4" t="n">
+        <v>482.189206638964</v>
+      </c>
+      <c r="G4" t="n">
+        <v>482.189206638964</v>
+      </c>
+      <c r="H4" t="n">
         <v>482.1892066389641</v>
       </c>
-      <c r="F4" t="n">
-        <v>482.1892066389642</v>
-      </c>
-      <c r="G4" t="n">
-        <v>482.1892066389642</v>
-      </c>
-      <c r="H4" t="n">
-        <v>482.1892066389642</v>
-      </c>
       <c r="I4" t="n">
-        <v>482.1892066389641</v>
+        <v>482.189206638964</v>
       </c>
       <c r="J4" t="n">
         <v>482.1892066389641</v>
       </c>
       <c r="K4" t="n">
-        <v>482.1892066389642</v>
+        <v>482.189206638964</v>
       </c>
       <c r="L4" t="n">
-        <v>482.1892066389642</v>
+        <v>482.1892066389641</v>
       </c>
       <c r="M4" t="n">
-        <v>482.1892066389642</v>
+        <v>482.189206638964</v>
       </c>
       <c r="N4" t="n">
-        <v>482.1892066389642</v>
+        <v>482.189206638964</v>
       </c>
       <c r="O4" t="n">
         <v>482.1892066389641</v>
       </c>
       <c r="P4" t="n">
-        <v>482.1892066389641</v>
+        <v>482.189206638964</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201140.5697078896</v>
+        <v>201140.5697078891</v>
       </c>
       <c r="C6" t="n">
-        <v>293059.3820756288</v>
+        <v>293059.382075629</v>
       </c>
       <c r="D6" t="n">
-        <v>293059.3820756288</v>
+        <v>293059.382075629</v>
       </c>
       <c r="E6" t="n">
-        <v>9558.085340163263</v>
+        <v>2927.498976428468</v>
       </c>
       <c r="F6" t="n">
-        <v>365747.5152268434</v>
+        <v>359116.9288631087</v>
       </c>
       <c r="G6" t="n">
-        <v>365747.5152268434</v>
+        <v>359116.9288631084</v>
       </c>
       <c r="H6" t="n">
-        <v>365747.5152268435</v>
+        <v>359116.9288631084</v>
       </c>
       <c r="I6" t="n">
-        <v>365747.5152268435</v>
+        <v>359116.9288631086</v>
       </c>
       <c r="J6" t="n">
-        <v>293982.8027387573</v>
+        <v>287352.2163750224</v>
       </c>
       <c r="K6" t="n">
-        <v>365747.5152268434</v>
+        <v>359116.9288631085</v>
       </c>
       <c r="L6" t="n">
-        <v>365747.5152268433</v>
+        <v>359116.9288631083</v>
       </c>
       <c r="M6" t="n">
-        <v>276131.4909283062</v>
+        <v>269500.904564571</v>
       </c>
       <c r="N6" t="n">
-        <v>365747.5152268435</v>
+        <v>359116.9288631084</v>
       </c>
       <c r="O6" t="n">
-        <v>365747.5152268434</v>
+        <v>359116.9288631084</v>
       </c>
       <c r="P6" t="n">
-        <v>365747.5152268435</v>
+        <v>359116.9288631085</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>309.705174430311</v>
       </c>
       <c r="H3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="I3" t="n">
         <v>309.705174430311</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
@@ -27387,19 +27387,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389384</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>246.7161882593086</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -27447,7 +27447,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.6870717512358</v>
+        <v>241.3377673465005</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>133.0565390046434</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
@@ -27520,13 +27520,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>216.2894530966152</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F4" t="n">
-        <v>146.1590214098045</v>
+        <v>56.08473969597509</v>
       </c>
       <c r="G4" t="n">
         <v>167.8895889301081</v>
@@ -27560,7 +27560,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -27587,7 +27587,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -27618,25 +27618,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
-        <v>366.9850956789426</v>
+        <v>238.7359567470885</v>
       </c>
       <c r="D5" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>133.0100561389384</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>83.3391864320221</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
@@ -27754,16 +27754,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>228.1119626264886</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>140.7125436878593</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D7" t="n">
         <v>149.0055665145194</v>
@@ -27800,7 +27800,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U7" t="n">
-        <v>286.0522703910642</v>
+        <v>121.9135534672892</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>274.5160031770095</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -27864,19 +27864,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>133.0100561389384</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>192.3079881041141</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
@@ -27912,16 +27912,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W8" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X8" t="n">
         <v>96.5777917895669</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.0978942447525</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>34.83093280342885</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.2404680021945</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
@@ -28022,16 +28022,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
-        <v>146.1590214098045</v>
+        <v>135.1354836983042</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>136.4794921647121</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
         <v>88.83884492777894</v>
@@ -31840,7 +31840,7 @@
         <v>22.93571338941455</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K12" t="n">
         <v>107.5699566698185</v>
@@ -31849,7 +31849,7 @@
         <v>144.6410816997411</v>
       </c>
       <c r="M12" t="n">
-        <v>168.7893200645195</v>
+        <v>67.78146999640688</v>
       </c>
       <c r="N12" t="n">
         <v>173.2566711183303</v>
@@ -31861,7 +31861,7 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.03452260962051</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>41.36024952108948</v>
@@ -32077,7 +32077,7 @@
         <v>22.93571338941455</v>
       </c>
       <c r="J15" t="n">
-        <v>62.93735058871067</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>107.5699566698185</v>
@@ -32089,7 +32089,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N15" t="n">
-        <v>173.2566711183303</v>
+        <v>50.15164902930815</v>
       </c>
       <c r="O15" t="n">
         <v>158.4960056351046</v>
@@ -32314,10 +32314,10 @@
         <v>22.93571338941455</v>
       </c>
       <c r="J18" t="n">
-        <v>62.93735058871067</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>107.5699566698185</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>144.6410816997411</v>
@@ -32326,7 +32326,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N18" t="n">
-        <v>173.2566711183303</v>
+        <v>165.1895964531518</v>
       </c>
       <c r="O18" t="n">
         <v>158.4960056351046</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.245045927358033</v>
+        <v>1.245045927358034</v>
       </c>
       <c r="H20" t="n">
-        <v>12.75082660355546</v>
+        <v>12.75082660355547</v>
       </c>
       <c r="I20" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J20" t="n">
         <v>105.671716777104</v>
@@ -32478,10 +32478,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L20" t="n">
-        <v>196.477585181553</v>
+        <v>196.4775851815531</v>
       </c>
       <c r="M20" t="n">
-        <v>218.6191706922064</v>
+        <v>218.6191706922065</v>
       </c>
       <c r="N20" t="n">
         <v>222.1566574333125</v>
@@ -32490,22 +32490,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P20" t="n">
-        <v>179.0391606614945</v>
+        <v>179.0391606614946</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.4509533879849</v>
+        <v>134.450953387985</v>
       </c>
       <c r="R20" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S20" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T20" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H21" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I21" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J21" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K21" t="n">
-        <v>107.5699566698185</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6410816997411</v>
+        <v>136.574007034562</v>
       </c>
       <c r="M21" t="n">
         <v>168.7893200645195</v>
       </c>
       <c r="N21" t="n">
-        <v>173.2566711183303</v>
+        <v>173.2566711183304</v>
       </c>
       <c r="O21" t="n">
         <v>158.4960056351046</v>
@@ -32572,19 +32572,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.03452260962051</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R21" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108949</v>
       </c>
       <c r="S21" t="n">
-        <v>12.37359824256949</v>
+        <v>12.3735982425695</v>
       </c>
       <c r="T21" t="n">
-        <v>2.685085427372224</v>
+        <v>2.685085427372225</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881763</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H22" t="n">
-        <v>4.965437058899089</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I22" t="n">
         <v>16.79515929533556</v>
@@ -32633,37 +32633,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K22" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L22" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M22" t="n">
-        <v>87.54502168363692</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N22" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O22" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P22" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985012</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897698</v>
       </c>
       <c r="R22" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S22" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T22" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.03046280404232572</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32806,10 +32806,10 @@
         <v>158.4960056351046</v>
       </c>
       <c r="P24" t="n">
-        <v>127.2070177768574</v>
+        <v>89.13651829745555</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.03452260962051</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>41.36024952108948</v>
@@ -33025,7 +33025,7 @@
         <v>22.93571338941455</v>
       </c>
       <c r="J27" t="n">
-        <v>62.93735058871067</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>107.5699566698185</v>
@@ -33034,7 +33034,7 @@
         <v>144.6410816997411</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>168.7893200645195</v>
       </c>
       <c r="N27" t="n">
         <v>173.2566711183303</v>
@@ -33043,7 +33043,7 @@
         <v>158.4960056351046</v>
       </c>
       <c r="P27" t="n">
-        <v>127.2070177768574</v>
+        <v>4.101995687835313</v>
       </c>
       <c r="Q27" t="n">
         <v>85.03452260962051</v>
@@ -33262,13 +33262,13 @@
         <v>22.93571338941455</v>
       </c>
       <c r="J30" t="n">
-        <v>62.93735058871067</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>107.5699566698185</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6410816997411</v>
+        <v>21.53605961071884</v>
       </c>
       <c r="M30" t="n">
         <v>168.7893200645195</v>
@@ -33283,7 +33283,7 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.562106601706006</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R30" t="n">
         <v>41.36024952108948</v>
@@ -33502,13 +33502,13 @@
         <v>62.93735058871067</v>
       </c>
       <c r="K33" t="n">
-        <v>107.5699566698185</v>
+        <v>90.31690405660518</v>
       </c>
       <c r="L33" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M33" t="n">
-        <v>168.7893200645195</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>173.2566711183303</v>
@@ -33736,7 +33736,7 @@
         <v>22.93571338941455</v>
       </c>
       <c r="J36" t="n">
-        <v>62.93735058871067</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>107.5699566698185</v>
@@ -33754,10 +33754,10 @@
         <v>158.4960056351046</v>
       </c>
       <c r="P36" t="n">
-        <v>127.2070177768574</v>
+        <v>89.13651829745555</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.03452260962051</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>41.36024952108948</v>
@@ -33979,7 +33979,7 @@
         <v>107.5699566698185</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6410816997411</v>
+        <v>21.53605961071884</v>
       </c>
       <c r="M39" t="n">
         <v>168.7893200645195</v>
@@ -34210,22 +34210,22 @@
         <v>22.93571338941455</v>
       </c>
       <c r="J42" t="n">
-        <v>62.93735058871067</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>107.5699566698185</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M42" t="n">
-        <v>168.7893200645195</v>
+        <v>153.2542546453159</v>
       </c>
       <c r="N42" t="n">
         <v>173.2566711183303</v>
       </c>
       <c r="O42" t="n">
-        <v>42.85897430010743</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P42" t="n">
         <v>127.2070177768574</v>
@@ -34447,7 +34447,7 @@
         <v>22.93571338941455</v>
       </c>
       <c r="J45" t="n">
-        <v>62.93735058871067</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>107.5699566698185</v>
@@ -34459,7 +34459,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N45" t="n">
-        <v>173.2566711183303</v>
+        <v>50.15164902930815</v>
       </c>
       <c r="O45" t="n">
         <v>158.4960056351046</v>
@@ -34789,16 +34789,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>56.78741806046166</v>
       </c>
       <c r="P3" t="n">
-        <v>142.4839011990109</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>271.1434367385833</v>
       </c>
       <c r="N6" t="n">
-        <v>141.6613176266638</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>200.5762321565626</v>
@@ -35257,22 +35257,22 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>118.7835326876286</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>274.2838073416025</v>
+        <v>130.4949932455015</v>
       </c>
       <c r="O9" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K12" t="n">
         <v>248.2184001629003</v>
@@ -35497,7 +35497,7 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M12" t="n">
-        <v>514.5419032905515</v>
+        <v>413.534053222439</v>
       </c>
       <c r="N12" t="n">
         <v>543.714571154376</v>
@@ -35506,10 +35506,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P12" t="n">
-        <v>212.146218598423</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.0326721210326</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.40534134273582</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K15" t="n">
         <v>248.2184001629003</v>
@@ -35737,7 +35737,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N15" t="n">
-        <v>357.6721984766432</v>
+        <v>420.6095490653538</v>
       </c>
       <c r="O15" t="n">
         <v>429.0814793495699</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>62.17602748516736</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L18" t="n">
         <v>395.2245205299612</v>
@@ -35974,7 +35974,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N18" t="n">
-        <v>543.714571154376</v>
+        <v>535.6474964891975</v>
       </c>
       <c r="O18" t="n">
         <v>429.0814793495699</v>
@@ -36129,19 +36129,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M20" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281614</v>
       </c>
       <c r="N20" t="n">
-        <v>453.3197218150998</v>
+        <v>453.3197218150999</v>
       </c>
       <c r="O20" t="n">
-        <v>381.4626643702566</v>
+        <v>381.4626643702567</v>
       </c>
       <c r="P20" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>132.5813688279032</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
-        <v>395.2245205299612</v>
+        <v>387.1574458647822</v>
       </c>
       <c r="M21" t="n">
         <v>514.5419032905515</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>50.11136289232032</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L22" t="n">
         <v>120.492579780375</v>
@@ -36296,7 +36296,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P22" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853396</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
-        <v>327.7832499334201</v>
+        <v>289.7127504540182</v>
       </c>
       <c r="Q24" t="n">
-        <v>43.92765003201039</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>70.40534134273582</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
         <v>248.2184001629003</v>
@@ -36682,7 +36682,7 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M27" t="n">
-        <v>345.7525832260321</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N27" t="n">
         <v>543.714571154376</v>
@@ -36691,10 +36691,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P27" t="n">
-        <v>327.7832499334201</v>
+        <v>204.678227844398</v>
       </c>
       <c r="Q27" t="n">
-        <v>149.7796195078191</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>70.40534134273582</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
-        <v>140.6484434930818</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L30" t="n">
-        <v>395.2245205299612</v>
+        <v>272.119498440939</v>
       </c>
       <c r="M30" t="n">
         <v>514.5419032905515</v>
@@ -36931,7 +36931,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.5602561131181</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K33" t="n">
-        <v>62.17602748516736</v>
+        <v>230.965347549687</v>
       </c>
       <c r="L33" t="n">
         <v>395.2245205299612</v>
       </c>
       <c r="M33" t="n">
-        <v>514.5419032905515</v>
+        <v>345.7525832260321</v>
       </c>
       <c r="N33" t="n">
         <v>543.714571154376</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K36" t="n">
         <v>248.2184001629003</v>
@@ -37396,16 +37396,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N36" t="n">
-        <v>428.0775398193789</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O36" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P36" t="n">
-        <v>327.7832499334201</v>
+        <v>289.7127504540182</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.0326721210326</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K39" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L39" t="n">
-        <v>395.2245205299612</v>
+        <v>272.119498440939</v>
       </c>
       <c r="M39" t="n">
         <v>514.5419032905515</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>105.0124396425415</v>
+        <v>105.0124396425416</v>
       </c>
       <c r="K41" t="n">
         <v>280.8981351873249</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
-        <v>248.2184001629003</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L42" t="n">
         <v>395.2245205299612</v>
       </c>
       <c r="M42" t="n">
-        <v>514.5419032905515</v>
+        <v>499.006837871348</v>
       </c>
       <c r="N42" t="n">
         <v>543.714571154376</v>
       </c>
       <c r="O42" t="n">
-        <v>313.4444480145728</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P42" t="n">
         <v>327.7832499334201</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K45" t="n">
         <v>248.2184001629003</v>
@@ -38107,10 +38107,10 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N45" t="n">
-        <v>543.714571154376</v>
+        <v>420.6095490653538</v>
       </c>
       <c r="O45" t="n">
-        <v>313.4444480145728</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P45" t="n">
         <v>327.7832499334201</v>
